--- a/automation/Repository/Cancellation..xlsx
+++ b/automation/Repository/Cancellation..xlsx
@@ -44,13 +44,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>EA12435413</t>
-  </si>
-  <si>
     <t>skip</t>
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>ABCDE1234578</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,18 +452,18 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/automation/Repository/Cancellation..xlsx
+++ b/automation/Repository/Cancellation..xlsx
@@ -50,7 +50,7 @@
     <t>pass</t>
   </si>
   <si>
-    <t>ABCDE1234578</t>
+    <t>AB1235845</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/automation/Repository/Cancellation..xlsx
+++ b/automation/Repository/Cancellation..xlsx
@@ -3,18 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Automation\automation\Repository\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="5415"/>
   </bookViews>
   <sheets>
     <sheet name="Contract" sheetId="1" r:id="rId1"/>
+    <sheet name="BR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:Q15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -423,7 +420,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,4 +477,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>